--- a/examples/sbtab/simple_examples/9.xlsx
+++ b/examples/sbtab/simple_examples/9.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="236">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:31:53'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.8' date='2020-03-09 23:59:14'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6471,7 +6471,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6486,7 +6486,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6507,7 +6507,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6522,7 +6522,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6588,7 +6588,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6600,7 +6600,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6609,16 +6609,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6792,7 +6792,7 @@
     <t>t1</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6810,7 +6810,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6849,7 +6849,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -6921,7 +6921,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -6933,7 +6933,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -6945,7 +6945,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -6960,13 +6960,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -6975,13 +6975,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -6990,19 +6990,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7023,7 +7023,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:31:53' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab/simple_examples/9.xlsx
+++ b/examples/sbtab/simple_examples/9.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="236">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.8' date='2020-03-09 23:59:14'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-26 21:09:32'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6471,7 +6471,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6486,7 +6486,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6507,7 +6507,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6522,7 +6522,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6588,7 +6588,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6600,7 +6600,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6609,16 +6609,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6792,7 +6792,7 @@
     <t>t1</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6810,7 +6810,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 23:59:14' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6849,7 +6849,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -6921,7 +6921,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -6933,7 +6933,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -6945,13 +6945,13 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!From</t>
-  </si>
-  <si>
-    <t>!To</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!FromObject</t>
+  </si>
+  <si>
+    <t>!ToObject</t>
   </si>
   <si>
     <t>!IsSymmetric</t>
@@ -6960,13 +6960,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -6975,13 +6975,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -6990,19 +6990,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7023,7 +7023,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 23:59:15' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -9798,10 +9798,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Type of quantitative relation&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Type of quantitative relation&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="From" error="Element at beginning of arrow&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="From" prompt="Element at beginning of arrow&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="To" error="Element at arrowhead&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="To" prompt="Element at arrowhead&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FromObject" error="Element at beginning of arrow&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="FromObject" prompt="Element at beginning of arrow&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ToObject" error="Element at arrowhead&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ToObject" prompt="Element at arrowhead&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsSymmetric" error="Flag indicating non-symmetric relations&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="IsSymmetric" prompt="Flag indicating non-symmetric relations&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="I2:I3">
@@ -9873,10 +9873,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="From" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="From" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="To" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="To" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FromObject" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="FromObject" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ToObject" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ToObject" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be an integer." promptTitle="Value" prompt="Enter an integer." sqref="D2:D3">

--- a/examples/sbtab/simple_examples/9.xlsx
+++ b/examples/sbtab/simple_examples/9.xlsx
@@ -35,32 +35,32 @@
     <sheet name="!!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3:$T$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$AI$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2:$BW$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2:$AW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2:$AU$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -6340,444 +6340,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-26 21:09:32'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-27 01:09:56'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Comment</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!ReferenceName</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!ReferencePubMed</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!ReferenceDOI</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Description</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Name</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!MiriamAnnotations</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Type</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Symbol</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!PositionX</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!PositionY</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ID</t>
   </si>
   <si>
-    <t>!SBML:compartment:id</t>
-  </si>
-  <si>
-    <t>!OuterCompartment</t>
-  </si>
-  <si>
-    <t>!OuterCompartment:SBML:compartment:id</t>
-  </si>
-  <si>
-    <t>!Size</t>
+    <t>!Sign</t>
   </si>
   <si>
     <t>!Unit</t>
   </si>
   <si>
-    <t>!SBOTerm</t>
-  </si>
-  <si>
-    <t>!Identifiers</t>
-  </si>
-  <si>
-    <t>!Identifiers:sbo.go</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!SBML:species:id</t>
-  </si>
-  <si>
-    <t>!SBML:speciestype:id</t>
-  </si>
-  <si>
-    <t>!InitialValue</t>
-  </si>
-  <si>
-    <t>!InitialConcentration</t>
-  </si>
-  <si>
-    <t>!Location</t>
-  </si>
-  <si>
-    <t>!State</t>
-  </si>
-  <si>
-    <t>!CompoundSumFormula</t>
-  </si>
-  <si>
-    <t>!StructureFormula</t>
-  </si>
-  <si>
-    <t>!Charge</t>
-  </si>
-  <si>
-    <t>!Mass</t>
-  </si>
-  <si>
-    <t>!IsConstant</t>
-  </si>
-  <si>
-    <t>!EnzymeRole</t>
-  </si>
-  <si>
-    <t>!RegulatorRole</t>
-  </si>
-  <si>
-    <t>!Identifiers:sbo.kegg</t>
-  </si>
-  <si>
-    <t>!Identifiers:kegg.compound</t>
-  </si>
-  <si>
-    <t>!Identifiers:obo.chebi</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:ChemicalFormula</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:Charge</t>
-  </si>
-  <si>
-    <t>!HasOnlySubstanceUnits</t>
-  </si>
-  <si>
-    <t>!NameForPlots</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!ComponentName</t>
-  </si>
-  <si>
-    <t>!ComponentType</t>
-  </si>
-  <si>
-    <t>!IsPartOf</t>
-  </si>
-  <si>
-    <t>!Format</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!CatalysedReaction</t>
-  </si>
-  <si>
-    <t>!KineticLaw</t>
-  </si>
-  <si>
-    <t>!KineticLaw:Name</t>
-  </si>
-  <si>
-    <t>!KineticLaw:Formula</t>
-  </si>
-  <si>
-    <t>!Pathway</t>
-  </si>
-  <si>
-    <t>!Gene</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:type</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:active</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:objective</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:reaction</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!LocusName</t>
-  </si>
-  <si>
-    <t>!GeneProduct</t>
-  </si>
-  <si>
-    <t>!GeneProduct:SBML:species:id</t>
-  </si>
-  <si>
-    <t>!Operon</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:ID</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:Name</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:GeneProduct</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:GeneAssociation</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:Label</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!SBML:layout:modelEntity</t>
-  </si>
-  <si>
-    <t>!SBML:layout:compartment:id</t>
-  </si>
-  <si>
-    <t>!SBML:layout:reaction:id</t>
-  </si>
-  <si>
-    <t>!SBML:layout:species:id</t>
-  </si>
-  <si>
-    <t>!SBML:layout:curveSegment</t>
-  </si>
-  <si>
-    <t>!SBML:layout:X</t>
-  </si>
-  <si>
-    <t>!SBML:layout:Y</t>
-  </si>
-  <si>
-    <t>!SBML:layout:width</t>
-  </si>
-  <si>
-    <t>!SBML:layout:height</t>
-  </si>
-  <si>
-    <t>!SBML:layout:text</t>
-  </si>
-  <si>
-    <t>!SBML:layout:speciesRole</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Sample</t>
-  </si>
-  <si>
     <t>!Time</t>
   </si>
   <si>
-    <t>!ValueType</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Option</t>
-  </si>
-  <si>
-    <t>!Value</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Element</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Quantity</t>
-  </si>
-  <si>
-    <t>!Reference</t>
-  </si>
-  <si>
-    <t>!QuantityName</t>
-  </si>
-  <si>
-    <t>!QuantityType</t>
-  </si>
-  <si>
-    <t>!Mean</t>
-  </si>
-  <si>
-    <t>!Std</t>
-  </si>
-  <si>
-    <t>!Min</t>
-  </si>
-  <si>
-    <t>!Max</t>
-  </si>
-  <si>
-    <t>!Median</t>
-  </si>
-  <si>
-    <t>!GeometricMean</t>
-  </si>
-  <si>
-    <t>!Sign</t>
-  </si>
-  <si>
-    <t>!ProbDist</t>
-  </si>
-  <si>
-    <t>!SBML:parameter:id</t>
-  </si>
-  <si>
-    <t>!Scale</t>
-  </si>
-  <si>
-    <t>!TimePoint</t>
-  </si>
-  <si>
-    <t>!Condition</t>
-  </si>
-  <si>
-    <t>!pH</t>
-  </si>
-  <si>
-    <t>!Temperature</t>
-  </si>
-  <si>
-    <t>!Location:SBML:compartment:id</t>
-  </si>
-  <si>
-    <t>!Compound</t>
-  </si>
-  <si>
-    <t>!Compound:SBML:species:id</t>
-  </si>
-  <si>
-    <t>!Reaction</t>
-  </si>
-  <si>
-    <t>!Reaction:SBML:reaction:id</t>
-  </si>
-  <si>
-    <t>!Enyzme</t>
-  </si>
-  <si>
-    <t>!Enyzme:SBML:species:id</t>
-  </si>
-  <si>
-    <t>!Enyzme:SBML:parameter:id</t>
-  </si>
-  <si>
-    <t>!Organism</t>
-  </si>
-  <si>
-    <t>!Provenance</t>
-  </si>
-  <si>
-    <t>!Identifiers:kegg.reaction</t>
-  </si>
-  <si>
-    <t>!Reaction:Identifiers:kegg.reaction</t>
-  </si>
-  <si>
-    <t>!Compound:Identifiers:kegg.compound</t>
-  </si>
-  <si>
-    <t>!BiologicalElement</t>
-  </si>
-  <si>
-    <t>!MathematicalType</t>
-  </si>
-  <si>
-    <t>!DataGeometricStd</t>
-  </si>
-  <si>
-    <t>!PriorMedian</t>
-  </si>
-  <si>
-    <t>!PriorStd</t>
-  </si>
-  <si>
-    <t>!PriorGeometricStd</t>
-  </si>
-  <si>
-    <t>!LowerBound</t>
-  </si>
-  <si>
-    <t>!UpperBound</t>
-  </si>
-  <si>
-    <t>!DataStd</t>
-  </si>
-  <si>
-    <t>!PhysicalType</t>
-  </si>
-  <si>
-    <t>!Dependence</t>
-  </si>
-  <si>
     <t>!UseAsPriorInformation</t>
-  </si>
-  <si>
-    <t>!SBMLElement</t>
-  </si>
-  <si>
-    <t>!Abbreviation</t>
-  </si>
-  <si>
-    <t>!MatrixInfo</t>
-  </si>
-  <si>
-    <t>!SBO:equilibrium_constant</t>
-  </si>
-  <si>
-    <t>!SBO:Identifiers:obo.sbo</t>
-  </si>
-  <si>
-    <t>!SBO:concentration</t>
-  </si>
-  <si>
-    <t>!SBO:concentration [mM:Log10]:Median</t>
-  </si>
-  <si>
-    <t>!Concentration:Min</t>
-  </si>
-  <si>
-    <t>!Concentration:Max</t>
-  </si>
-  <si>
-    <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
     <t>t0</t>
@@ -6792,262 +6408,46 @@
     <t>t1</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-04-26 21:09:32' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Constant</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!RelatedElement</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Scaling</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!ErrorStd</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!SBMLElementType</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!&gt;Table:Column</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!&gt;Document:Table:Column</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Protein</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Protein:SBML:species:id</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!&gt;Concentration:Glucose</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!&gt;Concentration:Fructose</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!&gt;Sample:t0</t>
-  </si>
-  <si>
-    <t>!&gt;Sample:t1</t>
-  </si>
-  <si>
-    <t>!&gt;TP:t0:mean</t>
-  </si>
-  <si>
-    <t>!&gt;TP:t0:std</t>
-  </si>
-  <si>
-    <t>!&gt;TP:t1:mean</t>
-  </si>
-  <si>
-    <t>!&gt;TP:t1:std</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Modifier</t>
-  </si>
-  <si>
-    <t>!SBML:reaction:id</t>
-  </si>
-  <si>
-    <t>!ReactionFormula</t>
-  </si>
-  <si>
-    <t>!Enzyme</t>
-  </si>
-  <si>
-    <t>!Model</t>
-  </si>
-  <si>
-    <t>!SubreactionOf</t>
-  </si>
-  <si>
-    <t>!IsComplete</t>
-  </si>
-  <si>
-    <t>!IsReversible</t>
-  </si>
-  <si>
-    <t>!IsInEquilibrium</t>
-  </si>
-  <si>
-    <t>!IsExchangeReaction</t>
-  </si>
-  <si>
-    <t>!Flux</t>
-  </si>
-  <si>
-    <t>!IsNonEnzymatic</t>
-  </si>
-  <si>
-    <t>!Gene:Symbol</t>
-  </si>
-  <si>
-    <t>!Enzyme:SBML:species:id</t>
-  </si>
-  <si>
-    <t>!Enzyme:SBML:parameter:id</t>
-  </si>
-  <si>
-    <t>!BuildReaction</t>
-  </si>
-  <si>
-    <t>!BuildEnzyme</t>
-  </si>
-  <si>
-    <t>!BuildEnzymeProduction</t>
-  </si>
-  <si>
-    <t>!Identifiers:obo.sbo</t>
-  </si>
-  <si>
-    <t>!Identifiers:ec-code</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:LowerBound</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:UpperBound</t>
-  </si>
-  <si>
-    <t>!Regulator</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Stoichiometry</t>
-  </si>
-  <si>
-    <t>!Substrate</t>
-  </si>
-  <si>
-    <t>!Product</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!TargetGene</t>
-  </si>
-  <si>
-    <t>!TargetOperon</t>
-  </si>
-  <si>
-    <t>!TargetPromoter</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!FromObject</t>
-  </si>
-  <si>
-    <t>!ToObject</t>
-  </si>
-  <si>
-    <t>!IsSymmetric</t>
-  </si>
-  <si>
-    <t>!Value:QuantityType</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Relation</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!RowID</t>
-  </si>
-  <si>
-    <t>!ColumnID</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!ColumnString</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!RowNumber</t>
-  </si>
-  <si>
-    <t>!ColumnNumber</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!RowString</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!ReactionID</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!UID:Contingency</t>
-  </si>
-  <si>
-    <t>!Target</t>
-  </si>
-  <si>
-    <t>!Contingency</t>
-  </si>
-  <si>
-    <t>!Reference:Identifiers:pubmed</t>
-  </si>
-  <si>
-    <t>!Quality</t>
-  </si>
-  <si>
-    <t>!InternalComplexID</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-04-26 21:09:33' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!UID:Reaction</t>
-  </si>
-  <si>
-    <t>!ComponentA:Name</t>
-  </si>
-  <si>
-    <t>!ComponentA:Domain</t>
-  </si>
-  <si>
-    <t>!ComponentA:Residue</t>
-  </si>
-  <si>
-    <t>!ComponentB:Name</t>
-  </si>
-  <si>
-    <t>!ComponentB:Domain</t>
-  </si>
-  <si>
-    <t>!ComponentB:Residue</t>
-  </si>
-  <si>
-    <t>!Literature:Identifiers:pubmed</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
   </si>
 </sst>
 </file>
@@ -7082,7 +6482,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7092,6 +6492,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF888888"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7114,13 +6519,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -7430,123 +6838,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.01" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A3:T3"/>
+  <autoFilter ref="A3:A3"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
       <formula1>255</formula1>
@@ -7628,31 +6939,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:C2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -7682,79 +6983,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:O2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -7822,493 +7065,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="75" width="15.7109375" customWidth="1"/>
-    <col min="76" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>93</v>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>94</v>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>95</v>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>145</v>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:75" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>146</v>
+      <c r="A3" s="5" t="s">
+        <v>18</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4" t="s">
-        <v>147</v>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4" t="s">
-        <v>148</v>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
       </c>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4"/>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="4" t="b">
+      <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
-      <c r="BS3" s="4"/>
-      <c r="BT3" s="4"/>
-      <c r="BU3" s="4"/>
-      <c r="BV3" s="4"/>
-      <c r="BW3" s="4"/>
     </row>
     <row r="4" spans="1:75" ht="15.01" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>149</v>
+      <c r="A4" s="5" t="s">
+        <v>21</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4" t="s">
-        <v>147</v>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4" t="s">
-        <v>148</v>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4">
+      <c r="D4" s="5">
         <v>0.5</v>
       </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4" t="b">
+      <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:BW4"/>
+  <autoFilter ref="A2:E4"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
       <formula1>255</formula1>
@@ -8576,95 +7399,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:S2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -8746,215 +7495,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="49" width="15.7109375" customWidth="1"/>
-    <col min="50" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:AW2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9138,207 +7693,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="47" width="15.7109375" customWidth="1"/>
-    <col min="48" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:AU2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9501,43 +7870,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:F2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9574,87 +7921,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:Q2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9726,59 +8007,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:J2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9828,47 +8071,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>206</v>
+        <v>28</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9909,159 +8126,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="35" width="15.7109375" customWidth="1"/>
-    <col min="36" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:AI2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10192,31 +8271,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:C2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10245,27 +8314,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>30</v>
       </c>
-      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:B2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10290,31 +8353,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>31</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:C2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
       <formula1>-32768</formula1>
@@ -10345,27 +8398,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
-      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:B2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10390,39 +8437,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:E2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10456,51 +8485,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
       <formula1>-32768</formula1>
@@ -10544,67 +8543,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:L2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
       <formula1>-32768</formula1>
@@ -10660,39 +8613,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:E2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10726,95 +8661,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:S2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10892,43 +8753,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:F2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10965,107 +8804,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:V2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -11152,71 +8905,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:M2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -11278,39 +8981,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:E2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -11344,27 +9029,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
-      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:B2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>

--- a/examples/sbtab/simple_examples/9.xlsx
+++ b/examples/sbtab/simple_examples/9.xlsx
@@ -6342,43 +6342,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-27 01:09:56'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='1.0.0' date='2020-05-29 00:23:52'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!ID</t>
@@ -6408,46 +6408,46 @@
     <t>t1</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-04-27 01:09:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-04-27 01:09:57' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-05-29 00:23:52' objTablesVersion='1.0.0'</t>
   </si>
 </sst>
 </file>
